--- a/sputnik/personal/ee/113ee.xlsx
+++ b/sputnik/personal/ee/113ee.xlsx
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,16 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>23,.06.2017</t>
-  </si>
-  <si>
-    <t>Оплачено 390,00.   Доплатить 19,00</t>
-  </si>
-  <si>
-    <t>Оплачено 556,50.   Доплатить 410,00</t>
-  </si>
-  <si>
-    <t>Оплачено 248,52.   Доплатить 92,720</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,14 +93,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -116,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,76 +131,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -221,7 +148,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -231,44 +158,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -576,48 +473,53 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>42809</v>
       </c>
@@ -630,8 +532,10 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -642,8 +546,10 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>42909</v>
       </c>
@@ -654,7 +560,7 @@
         <v>2150</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C2</f>
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
         <v>100</v>
       </c>
       <c r="E4" s="6">
@@ -664,8 +570,15 @@
         <f>D4*E4</f>
         <v>409</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="11">
+        <f>SUM(F4,F5)</f>
+        <v>409</v>
+      </c>
+      <c r="H4" s="11">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -674,7 +587,7 @@
         <v>1100</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="6">
@@ -684,214 +597,142 @@
         <f>D5*E5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>43003</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2350</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.29</v>
+      </c>
+      <c r="F6" s="6">
+        <f>D6*E6</f>
+        <v>858</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(F6,F7)</f>
+        <v>966.5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>556.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2350</v>
+        <v>1150</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C4</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="E7" s="6">
-        <v>4.29</v>
+        <v>2.17</v>
       </c>
       <c r="F7" s="6">
         <f>D7*E7</f>
-        <v>858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+        <v>108.5</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43739</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>1150</v>
+        <v>2426</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C5</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="E8" s="6">
-        <v>2.17</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
         <f>D8*E8</f>
-        <v>108.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341.24</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(F8,F9)</f>
+        <v>341.24</v>
+      </c>
+      <c r="H8" s="11">
+        <v>248.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.39</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>43739</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18">
-        <v>2426</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C7</f>
-        <v>76</v>
-      </c>
-      <c r="E10" s="20">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>341.24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18">
-        <v>1150</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C8</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="21" t="s">
+      <c r="G10" s="11">
+        <f>SUM(G4:G9)</f>
+        <v>1716.74</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H4:H9)</f>
+        <v>1195.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
+        <f>SUM(H10,-G10)</f>
+        <v>-521.72</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C12:E12"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/113ee.xlsx
+++ b/sputnik/personal/ee/113ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -473,10 +473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -693,43 +693,145 @@
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6" t="s">
+      <c r="A10" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2499</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="1">C10-C8</f>
+        <v>73</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="6">
+        <f>D10*E10</f>
+        <v>327.77000000000004</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>449.27000000000004</v>
+      </c>
+      <c r="H10" s="11">
+        <v>575.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <f>D11*E11</f>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44014</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2698</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="2">C12-C10</f>
+        <v>199</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12*E12</f>
+        <v>893.51</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>1015.01</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1229.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1250</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13*E13</f>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
-        <f>SUM(G4:G9)</f>
-        <v>1716.74</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(H4:H9)</f>
-        <v>1195.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="12" t="s">
+      <c r="G14" s="11">
+        <f>SUM(G4:G13)</f>
+        <v>3181.0200000000004</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(H4:H13)</f>
+        <v>3000.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
-        <f>SUM(H10,-G10)</f>
-        <v>-521.72</v>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13">
+        <f>SUM(H14,-G14)</f>
+        <v>-180.44000000000051</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/113ee.xlsx
+++ b/sputnik/personal/ee/113ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -473,10 +473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -765,15 +765,15 @@
         <v>199</v>
       </c>
       <c r="E12" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="6">
         <f>D12*E12</f>
-        <v>893.51</v>
+        <v>937.29</v>
       </c>
       <c r="G12" s="11">
         <f>SUM(F12,F13)</f>
-        <v>1015.01</v>
+        <v>1064.79</v>
       </c>
       <c r="H12" s="11">
         <v>1229.79</v>
@@ -792,46 +792,97 @@
         <v>50</v>
       </c>
       <c r="E13" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
         <f>D13*E13</f>
-        <v>121.50000000000001</v>
+        <v>127.49999999999999</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6" t="s">
+      <c r="A14" s="4">
+        <v>44116</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2897</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="3">C14-C12</f>
+        <v>199</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f>D14*E14</f>
+        <v>937.29</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>937.29</v>
+      </c>
+      <c r="H14" s="11">
+        <v>937.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1250</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15*E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11">
-        <f>SUM(G4:G13)</f>
-        <v>3181.0200000000004</v>
-      </c>
-      <c r="H14" s="11">
-        <f>SUM(H4:H13)</f>
-        <v>3000.58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="12" t="s">
+      <c r="G16" s="11">
+        <f>SUM(G4:G15)</f>
+        <v>4168.09</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(H4:H15)</f>
+        <v>3937.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13">
-        <f>SUM(H14,-G14)</f>
-        <v>-180.44000000000051</v>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13">
+        <f>SUM(H16,-G16)</f>
+        <v>-230.22000000000025</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/113ee.xlsx
+++ b/sputnik/personal/ee/113ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -473,10 +473,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -717,7 +717,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" ref="F10:F15" si="2">D10*E10</f>
         <v>327.77000000000004</v>
       </c>
       <c r="G10" s="11">
@@ -744,7 +744,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G11" s="11"/>
@@ -758,22 +758,21 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>2698</v>
+        <v>2733</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="2">C12-C10</f>
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>937.29</v>
+        <f t="shared" si="2"/>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G12" s="11">
         <f>SUM(F12,F13)</f>
-        <v>1064.79</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="H12" s="11">
         <v>1229.79</v>
@@ -788,14 +787,14 @@
         <v>1250</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D12:D13" si="3">C13-C11</f>
         <v>50</v>
       </c>
       <c r="E13" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f>D13*E13</f>
+        <f t="shared" si="2"/>
         <v>127.49999999999999</v>
       </c>
       <c r="G13" s="11"/>
@@ -809,17 +808,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>2897</v>
+        <v>3089</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="3">C14-C12</f>
         <v>199</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f>D14*E14</f>
+        <f t="shared" si="2"/>
         <v>937.29</v>
       </c>
       <c r="G14" s="11">
@@ -839,50 +837,101 @@
         <v>1250</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D14:D15" si="4">C15-C13</f>
         <v>0</v>
       </c>
       <c r="E15" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f>D15*E15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6" t="s">
+      <c r="A16" s="4">
+        <v>44447</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3132</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="5">C16-C14</f>
+        <v>43</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <v>213.28</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>213.28</v>
+      </c>
+      <c r="H16" s="11">
+        <v>213.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1250</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G18" s="11">
         <f>SUM(G4:G15)</f>
-        <v>4168.09</v>
-      </c>
-      <c r="H16" s="11">
+        <v>4332.9400000000005</v>
+      </c>
+      <c r="H18" s="11">
         <f>SUM(H4:H15)</f>
         <v>3937.87</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="12" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13">
-        <f>SUM(H16,-G16)</f>
-        <v>-230.22000000000025</v>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13">
+        <f>SUM(H18,-G18)</f>
+        <v>-395.07000000000062</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/113ee.xlsx
+++ b/sputnik/personal/ee/113ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -47,12 +47,6 @@
   <si>
     <t>оплачено</t>
   </si>
-  <si>
-    <t>итого за период</t>
-  </si>
-  <si>
-    <t>к доплате</t>
-  </si>
 </sst>
 </file>
 
@@ -61,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +82,6 @@
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -135,10 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -154,18 +140,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -473,10 +451,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -494,445 +472,514 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>42809</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>2050</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1100</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>42909</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>2150</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" ref="D4:D9" si="0">C4-C2</f>
         <v>100</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>4.09</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>D4*E4</f>
         <v>409</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
         <v>409</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1100</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1.99</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43003</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>2350</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>4.29</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>D6*E6</f>
         <v>858</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
         <v>966.5</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <v>556.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1150</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>2.17</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>D7*E7</f>
         <v>108.5</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>43739</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>2426</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>4.49</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f>D8*E8</f>
         <v>341.24</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
         <v>341.24</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <v>248.52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1150</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>44011</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
         <v>2499</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" ref="D10:D11" si="1">C10-C8</f>
         <v>73</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>4.49</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" ref="F10:F15" si="2">D10*E10</f>
         <v>327.77000000000004</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
         <v>449.27000000000004</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="8">
         <v>575.77</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1200</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="2"/>
         <v>121.50000000000001</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>44014</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
         <v>2733</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>234</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>4.71</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="2"/>
         <v>1102.1400000000001</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
         <v>1229.6400000000001</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <v>1229.79</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1250</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" ref="D12:D13" si="3">C13-C11</f>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="3">C13-C11</f>
         <v>50</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="2"/>
         <v>127.49999999999999</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>44116</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
         <v>3089</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>199</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>4.71</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="2"/>
         <v>937.29</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
         <v>937.29</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <v>937.29</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1250</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" ref="D14:D15" si="4">C15-C13</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="4">C15-C13</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>44447</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
         <v>3132</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" ref="D16:D17" si="5">C16-C14</f>
         <v>43</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>4.96</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" ref="F16:F17" si="6">D16*E16</f>
         <v>213.28</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
         <v>213.28</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="8">
         <v>213.28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>1250</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E17" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="11">
-        <f>SUM(G4:G15)</f>
-        <v>4332.9400000000005</v>
-      </c>
-      <c r="H18" s="11">
-        <f>SUM(H4:H15)</f>
-        <v>3937.87</v>
+      <c r="A18" s="3">
+        <v>44467</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3229</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="7">C18-C16</f>
+        <v>97</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
+        <v>481.12</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(F18,F19)</f>
+        <v>481.12</v>
+      </c>
+      <c r="H18" s="8">
+        <v>481.12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13">
-        <f>SUM(H18,-G18)</f>
-        <v>-395.07000000000062</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1250</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44469</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3329</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="9">C20-C18</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
+        <v>496</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>630</v>
+      </c>
+      <c r="H20" s="8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="10"/>
+        <v>134</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
